--- a/data/excel/24-Soat-ichida-royhatdan-otkanlar.xlsx
+++ b/data/excel/24-Soat-ichida-royhatdan-otkanlar.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,16 +418,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Asadbek</v>
+        <v>Ulug'bek</v>
       </c>
       <c r="B2" t="str">
-        <v>+998977622003</v>
+        <v>+9989776220034</v>
       </c>
       <c r="C2" t="str">
         <v>19 yosh</v>
       </c>
       <c r="D2" t="str">
-        <v>2023-01-26T01:23:44.047Z</v>
+        <v>2023-01-26T14:55:47.680Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,18 +435,18 @@
         <v>Ulug'bek</v>
       </c>
       <c r="B3" t="str">
-        <v>+998977622003</v>
+        <v>+9989776220034</v>
       </c>
       <c r="C3" t="str">
         <v>19 yosh</v>
       </c>
       <c r="D3" t="str">
-        <v>2023-01-26T00:57:21.238Z</v>
+        <v>2023-01-26T14:54:41.559Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Ulug'bek</v>
+        <v>Gulom</v>
       </c>
       <c r="B4" t="str">
         <v>+998977622003</v>
@@ -455,26 +455,432 @@
         <v>19 yosh</v>
       </c>
       <c r="D4" t="str">
-        <v>2023-01-26T00:55:43.640Z</v>
+        <v>2023-01-26T14:53:01.403Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B5" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C5" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2023-01-26T14:52:05.159Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B6" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C6" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2023-01-26T14:51:09.037Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B7" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C7" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2023-01-26T14:50:24.803Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B8" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C8" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2023-01-26T14:49:35.646Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B9" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C9" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2023-01-26T14:48:56.110Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B10" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C10" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2023-01-26T14:44:13.004Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B11" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C11" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2023-01-26T14:11:45.638Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B12" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C12" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2023-01-26T14:10:24.420Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B13" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C13" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2023-01-26T14:09:35.551Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B14" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C14" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2023-01-26T14:05:06.661Z</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B15" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C15" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2023-01-26T14:04:01.796Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B16" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C16" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2023-01-26T14:03:58.891Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B17" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C17" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2023-01-26T14:03:07.083Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B18" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C18" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2023-01-26T13:58:54.861Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B19" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C19" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2023-01-26T13:58:52.414Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B20" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C20" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2023-01-26T13:55:38.766Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B21" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C21" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2023-01-26T13:52:21.756Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B22" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C22" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2023-01-26T13:49:51.311Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B23" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C23" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2023-01-26T13:46:18.364Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B24" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C24" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2023-01-26T13:42:47.105Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B25" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C25" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2023-01-26T13:35:48.861Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B26" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C26" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2023-01-26T12:58:56.341Z</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B27" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C27" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2023-01-26T12:58:50.626Z</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B28" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C28" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2023-01-26T12:57:19.499Z</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B29" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C29" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2023-01-26T12:53:34.021Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="B30" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C30" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2023-01-26T12:35:01.164Z</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Asadbek</v>
+      </c>
+      <c r="B31" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C31" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2023-01-26T01:23:44.047Z</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
         <v>Ulug'bek</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B32" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C32" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2023-01-26T00:57:21.238Z</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B33" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C33" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2023-01-26T00:55:43.640Z</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B34" t="str">
         <v>+9989776220034</v>
       </c>
-      <c r="C5" t="str">
-        <v>19 yosh</v>
-      </c>
-      <c r="D5" t="str">
+      <c r="C34" t="str">
+        <v>19 yosh</v>
+      </c>
+      <c r="D34" t="str">
         <v>2023-01-26T00:54:25.575Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/excel/24-Soat-ichida-royhatdan-otkanlar.xlsx
+++ b/data/excel/24-Soat-ichida-royhatdan-otkanlar.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,12 +421,188 @@
         <v>+998977622003</v>
       </c>
       <c r="C2" t="str">
+        <v>1/28/2023, 12:39:25 PM</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B3" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1/28/2023, 12:39:25 PM</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>derfwedwsqdewre</v>
+      </c>
+      <c r="B4" t="str">
+        <v>(21) 321 32 12</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1/28/2023, 6:55:14 AM</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>New Test</v>
+      </c>
+      <c r="B5" t="str">
+        <v>(23) 213 21 12</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1/28/2023, 6:55:48 AM</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Test</v>
+      </c>
+      <c r="B6" t="str">
+        <v>(00) 000 00 00</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1/28/2023, 7:05:10 AM</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v xml:space="preserve">Shukulo </v>
+      </c>
+      <c r="B7" t="str">
+        <v>(98) 562 24 96</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1/28/2023, 7:07:05 AM</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Azamat</v>
+      </c>
+      <c r="B8" t="str">
+        <v>(97) 856 24 8</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1/28/2023, 7:10:28 AM</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Abdulla</v>
+      </c>
+      <c r="B9" t="str">
+        <v>(97) 762 20 0</v>
+      </c>
+      <c r="C9" t="str">
+        <v>1/28/2023, 7:13:19 AM</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>TestNew</v>
+      </c>
+      <c r="B10" t="str">
+        <v>(11) 111 11 11</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1/28/2023, 7:16:24 AM</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Qudrat</v>
+      </c>
+      <c r="B11" t="str">
+        <v>(97) 852 56 25</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1/28/2023, 7:17:42 AM</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Bakir</v>
+      </c>
+      <c r="B12" t="str">
+        <v>(97) 562 20 5</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1/28/2023, 7:35:36 AM</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Akmal Shamsiev</v>
+      </c>
+      <c r="B13" t="str">
+        <v>(99) 562 78 89</v>
+      </c>
+      <c r="C13" t="str">
+        <v>1/28/2023, 4:58:34 AM</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Akmal Shamsiev</v>
+      </c>
+      <c r="B14" t="str">
+        <v>(12) 223 32s</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1/28/2023, 5:00:27 AM</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Nn</v>
+      </c>
+      <c r="B15" t="str">
+        <v>(94) 994 49 49</v>
+      </c>
+      <c r="C15" t="str">
+        <v>1/28/2023, 5:06:12 AM</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B16" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1/28/2023, 5:15:52 AM</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B17" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C17" t="str">
         <v>1/28/2023, 9:55:15 AM</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Izzat</v>
+      </c>
+      <c r="B18" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1/28/2023, 9:52:42 AM</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
   </ignoredErrors>
 </worksheet>
 </file>